--- a/biology/Botanique/Carex_à_fruits_tomenteux/Carex_à_fruits_tomenteux.xlsx
+++ b/biology/Botanique/Carex_à_fruits_tomenteux/Carex_à_fruits_tomenteux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carex_%C3%A0_fruits_tomenteux</t>
+          <t>Carex_à_fruits_tomenteux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Laîche à fruit velu, Carex lasiocarpa, aussi appelée laîche à fruit barbu ou laîche filiforme, est une espèce de plantes psammophytes de la famille des Cyperaceae. Elle est très courante dans les zones humides telles que les tourbières et sur le littoral, en Amérique du Nord et en Eurasie
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carex_%C3%A0_fruits_tomenteux</t>
+          <t>Carex_à_fruits_tomenteux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,23 +523,25 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 janvier 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 janvier 2017) :
 variété Carex lasiocarpa var. americana
 variété Carex lasiocarpa var. lasiocarpa
 variété Carex lasiocarpa var. occultans
-Selon World Checklist of Selected Plant Families (WCSP)  (3 janvier 2017)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (3 janvier 2017) :
 variété Carex lasiocarpa var. americana Fernald (1942)
 variété Carex lasiocarpa var. lasiocarpa
 variété Carex lasiocarpa var. occultans (Franch.) Kük. (1909)
-Selon NCBI  (3 janvier 2017)[4] :
+Selon NCBI  (3 janvier 2017) :
 variété Carex lasiocarpa var. americana
 variété Carex lasiocarpa var. occultans
-Selon The Plant List            (3 janvier 2017)[1] :
+Selon The Plant List            (3 janvier 2017) :
 variété Carex lasiocarpa var. americana Fernald
 variété Carex lasiocarpa var. occultans (Franch.) Kük.
-Selon Tropicos                                           (3 janvier 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Carex lasiocarpa subsp. americana (Fernald) D. Löve &amp; J.-P. Bernard
 sous-espèce Carex lasiocarpa subsp. lanuginosa (Michx.) R.T. Clausen &amp; Wahl
 sous-espèce Carex lasiocarpa subsp. occultans (Franch.) Hultén
